--- a/data/158/SBJ/RPKT/RPKT_historical.xlsx
+++ b/data/158/SBJ/RPKT/RPKT_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO2"/>
+  <dimension ref="A1:JS2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1737,6 +1737,26 @@
           <t>2021-11</t>
         </is>
       </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2563,6 +2583,18 @@
       </c>
       <c r="JO2" t="n">
         <v>168</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>164</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>166</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>170</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
